--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Ntrk1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H2">
         <v>1.691493</v>
       </c>
       <c r="I2">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J2">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.0002123333333333333</v>
+        <v>0.220618</v>
       </c>
       <c r="N2">
-        <v>0.000637</v>
+        <v>0.6618539999999999</v>
       </c>
       <c r="O2">
-        <v>0.0008844802186068535</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P2">
-        <v>0.0008844802186068534</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q2">
-        <v>0.0001197201156666667</v>
+        <v>0.124391267558</v>
       </c>
       <c r="R2">
-        <v>0.001077481041</v>
+        <v>1.119521408022</v>
       </c>
       <c r="S2">
-        <v>0.0007072169975059668</v>
+        <v>0.3593508314024036</v>
       </c>
       <c r="T2">
-        <v>0.0007072169975059666</v>
+        <v>0.3593508314024037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,60 +596,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H3">
         <v>1.691493</v>
       </c>
       <c r="I3">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J3">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.220618</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N3">
-        <v>0.6618539999999999</v>
+        <v>0.337646</v>
       </c>
       <c r="O3">
-        <v>0.9189902207312721</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P3">
-        <v>0.9189902207312721</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q3">
-        <v>0.124391267558</v>
+        <v>0.06345842727533334</v>
       </c>
       <c r="R3">
-        <v>1.119521408022</v>
+        <v>0.5711258454779999</v>
       </c>
       <c r="S3">
-        <v>0.7348106729471179</v>
+        <v>0.1833234683475449</v>
       </c>
       <c r="T3">
-        <v>0.7348106729471178</v>
+        <v>0.1833234683475449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5638310000000001</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H4">
-        <v>1.691493</v>
+        <v>0.160899</v>
       </c>
       <c r="I4">
-        <v>0.7995848664879195</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J4">
-        <v>0.7995848664879194</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.01923533333333333</v>
+        <v>0.220618</v>
       </c>
       <c r="N4">
-        <v>0.05770599999999999</v>
+        <v>0.6618539999999999</v>
       </c>
       <c r="O4">
-        <v>0.080125299050121</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P4">
-        <v>0.080125299050121</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q4">
-        <v>0.01084547722866667</v>
+        <v>0.011832405194</v>
       </c>
       <c r="R4">
-        <v>0.09760929505799999</v>
+        <v>0.106491646746</v>
       </c>
       <c r="S4">
-        <v>0.06406697654329563</v>
+        <v>0.03418234034773737</v>
       </c>
       <c r="T4">
-        <v>0.06406697654329561</v>
+        <v>0.03418234034773738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,78 +720,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1413236666666667</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H5">
-        <v>0.423971</v>
+        <v>0.160899</v>
       </c>
       <c r="I5">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J5">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0002123333333333333</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N5">
-        <v>0.000637</v>
+        <v>0.337646</v>
       </c>
       <c r="O5">
-        <v>0.0008844802186068535</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P5">
-        <v>0.0008844802186068534</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q5">
-        <v>3.000772522222222E-05</v>
+        <v>0.006036322639333333</v>
       </c>
       <c r="R5">
-        <v>0.000270069527</v>
+        <v>0.054326903754</v>
       </c>
       <c r="S5">
-        <v>0.0001772632211008867</v>
+        <v>0.01743818196921396</v>
       </c>
       <c r="T5">
-        <v>0.0001772632211008867</v>
+        <v>0.01743818196921396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1413236666666667</v>
+        <v>0.421522</v>
       </c>
       <c r="H6">
-        <v>0.423971</v>
+        <v>1.264566</v>
       </c>
       <c r="I6">
-        <v>0.2004151335120805</v>
+        <v>0.4057051779331001</v>
       </c>
       <c r="J6">
-        <v>0.2004151335120805</v>
+        <v>0.4057051779331002</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,84 +806,84 @@
         <v>0.6618539999999999</v>
       </c>
       <c r="O6">
-        <v>0.9189902207312721</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P6">
-        <v>0.9189902207312721</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q6">
-        <v>0.03117854469266666</v>
+        <v>0.09299534059599998</v>
       </c>
       <c r="R6">
-        <v>0.280606902234</v>
+        <v>0.8369580653639999</v>
       </c>
       <c r="S6">
-        <v>0.1841795477841543</v>
+        <v>0.2686519207961321</v>
       </c>
       <c r="T6">
-        <v>0.1841795477841543</v>
+        <v>0.2686519207961321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1413236666666667</v>
+        <v>0.421522</v>
       </c>
       <c r="H7">
-        <v>0.423971</v>
+        <v>1.264566</v>
       </c>
       <c r="I7">
-        <v>0.2004151335120805</v>
+        <v>0.4057051779331001</v>
       </c>
       <c r="J7">
-        <v>0.2004151335120805</v>
+        <v>0.4057051779331002</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.01923533333333333</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N7">
-        <v>0.05770599999999999</v>
+        <v>0.337646</v>
       </c>
       <c r="O7">
-        <v>0.080125299050121</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P7">
-        <v>0.080125299050121</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q7">
-        <v>0.002718407836222222</v>
+        <v>0.04744173907066666</v>
       </c>
       <c r="R7">
-        <v>0.024465670526</v>
+        <v>0.4269756516359999</v>
       </c>
       <c r="S7">
-        <v>0.01605832250682538</v>
+        <v>0.137053257136968</v>
       </c>
       <c r="T7">
-        <v>0.01605832250682538</v>
+        <v>0.137053257136968</v>
       </c>
     </row>
   </sheetData>
